--- a/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5637411045065339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4981638072453154</v>
+        <v>0.4981638072453155</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5604162763208133</v>
@@ -697,7 +697,7 @@
         <v>0.5940795791110524</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.568507694929744</v>
+        <v>0.5685076949297441</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4945537842874003</v>
+        <v>0.4951476468058789</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5111621093971702</v>
+        <v>0.5114660007003838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5289870689138403</v>
+        <v>0.5303634711471854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4604808309528283</v>
+        <v>0.4601428757435967</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5336485554308565</v>
+        <v>0.5336187606188046</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6437708691284714</v>
+        <v>0.6463143215652366</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5856950871954557</v>
+        <v>0.5856895355814334</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5940631706032786</v>
+        <v>0.5903555305075909</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5242093964999177</v>
+        <v>0.5266756655061721</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5991245158147026</v>
+        <v>0.5987006524588353</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5707848538344953</v>
+        <v>0.5719245876044553</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5444365803462907</v>
+        <v>0.5437501000837164</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.558254884992422</v>
+        <v>0.5542128996573585</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5737814151612226</v>
+        <v>0.5784781943888786</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5984951242997685</v>
+        <v>0.5989987299916443</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5403327804308946</v>
+        <v>0.5407189927110426</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5886658327302338</v>
+        <v>0.5862182175219114</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6967564833249622</v>
+        <v>0.6982597471220171</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6487180593024942</v>
+        <v>0.6478255170958321</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6450719247852484</v>
+        <v>0.6443204660017162</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5658603561673277</v>
+        <v>0.5672327229203429</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.642397726073528</v>
+        <v>0.6390397615546807</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6183019877304358</v>
+        <v>0.6180579308169963</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.592541866157236</v>
+        <v>0.590231906025711</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4599675440534772</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3998036816660641</v>
+        <v>0.3998036816660642</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.5294167254712803</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3665557872631915</v>
+        <v>0.3651450516059826</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4479550981286355</v>
+        <v>0.4491123799247376</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4348957105849717</v>
+        <v>0.4379210647203746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3770575297618008</v>
+        <v>0.3757925985923231</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5008965047876326</v>
+        <v>0.5043448455575841</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5724414745662528</v>
+        <v>0.5715763679587341</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5029696399687523</v>
+        <v>0.5047571554520216</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4506269653437443</v>
+        <v>0.4542585308640668</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4408224102888438</v>
+        <v>0.4385271953834009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5150835689609632</v>
+        <v>0.5149167949830507</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.476296587874505</v>
+        <v>0.4778198147041743</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4208502539473711</v>
+        <v>0.4207728845995506</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4137615187220008</v>
+        <v>0.4127910839358169</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4942398328335064</v>
+        <v>0.4950032802336452</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4816093422540745</v>
+        <v>0.4818771829281946</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4260572570432409</v>
+        <v>0.4256244241505009</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5522572730978473</v>
+        <v>0.5536230925976333</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6207075848487391</v>
+        <v>0.6207053510454769</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5466421645618832</v>
+        <v>0.5492289371154345</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4932135076647122</v>
+        <v>0.4916497536389157</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4745696629239497</v>
+        <v>0.4739911742198136</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5493678013078601</v>
+        <v>0.5488006819382282</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5077932071276765</v>
+        <v>0.5072311708047489</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4517276379613432</v>
+        <v>0.4528846334709556</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3550469163090577</v>
+        <v>0.3469906966214842</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4001437372877565</v>
+        <v>0.4037605231299983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4048924553988758</v>
+        <v>0.4036763834422106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3741023596254346</v>
+        <v>0.3716472930745001</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4874077215479563</v>
+        <v>0.4846967192969117</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4908861112989065</v>
+        <v>0.4880897742026948</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4604989542716654</v>
+        <v>0.4617157913434701</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4560893714182926</v>
+        <v>0.4554554600809684</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4229493905093828</v>
+        <v>0.4236975948217587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4580434652075561</v>
+        <v>0.4611908174985049</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4475727600439693</v>
+        <v>0.4489989596045784</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4279754611050885</v>
+        <v>0.425143387437324</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4390024796571597</v>
+        <v>0.4336452296463107</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4995012449403068</v>
+        <v>0.5089739473199487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.49813327189061</v>
+        <v>0.4903281095455036</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4544941068402194</v>
+        <v>0.450138297207912</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5780136530514272</v>
+        <v>0.5761686185893872</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5937613572192929</v>
+        <v>0.5921714009618462</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5484316658116242</v>
+        <v>0.5500120412001654</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5205982955079242</v>
+        <v>0.5220667910814789</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4881605912121638</v>
+        <v>0.4862364385319802</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5331981619102176</v>
+        <v>0.5330364240697791</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5081715507732472</v>
+        <v>0.5105585740271066</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.477437949848064</v>
+        <v>0.4789987539477723</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4810818295566668</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4186570288315322</v>
+        <v>0.4186570288315321</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5418144492936345</v>
@@ -1093,7 +1093,7 @@
         <v>0.5485201733742346</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5079035387954177</v>
+        <v>0.5079035387954178</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.487851131820891</v>
@@ -1105,7 +1105,7 @@
         <v>0.5155548710831471</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4645485813155907</v>
+        <v>0.4645485813155908</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.414692007002441</v>
+        <v>0.4157683260250113</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4707716346386225</v>
+        <v>0.4733652761461905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.463843603932724</v>
+        <v>0.4641136150400106</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4003087150091765</v>
+        <v>0.3997475726492955</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5247719197396368</v>
+        <v>0.5231049842803942</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5998460135458281</v>
+        <v>0.6012387861055973</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5312308749226121</v>
+        <v>0.5304393724974104</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4940854130811208</v>
+        <v>0.4932989042538565</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4761293522187702</v>
+        <v>0.4760762846735229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5424372551613811</v>
+        <v>0.5427761006465086</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5029303806716108</v>
+        <v>0.5039722511160589</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.453649993894126</v>
+        <v>0.4517787937728774</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4500762056060974</v>
+        <v>0.45049844778864</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5060807065513012</v>
+        <v>0.5066500780695427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4979874605284615</v>
+        <v>0.4992024217674991</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.436877894305266</v>
+        <v>0.436593059301958</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5589122367738513</v>
+        <v>0.5583703995645004</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6341784468083361</v>
+        <v>0.6348269454594744</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5650550663196019</v>
+        <v>0.5664311118764789</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5247519634214532</v>
+        <v>0.5228024933817397</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5007538817860366</v>
+        <v>0.5003090539878823</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5672977761670595</v>
+        <v>0.5680934693987063</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5276755141235884</v>
+        <v>0.5285307462805701</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.477457725528008</v>
+        <v>0.4766269371558313</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>510243</v>
+        <v>510855</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>498201</v>
+        <v>498497</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>399040</v>
+        <v>400078</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>264127</v>
+        <v>263933</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>701808</v>
+        <v>701769</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>861235</v>
+        <v>864637</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>582567</v>
+        <v>582562</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>482066</v>
+        <v>479057</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1230233</v>
+        <v>1236021</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1385439</v>
+        <v>1384459</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>998307</v>
+        <v>1000300</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>754078</v>
+        <v>753127</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>575964</v>
+        <v>571794</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>559232</v>
+        <v>563810</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>451473</v>
+        <v>451853</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>309929</v>
+        <v>310150</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>774162</v>
+        <v>770943</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>932119</v>
+        <v>934130</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>645254</v>
+        <v>644366</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>523458</v>
+        <v>522848</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1327981</v>
+        <v>1331202</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1485506</v>
+        <v>1477741</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1081415</v>
+        <v>1080988</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>820707</v>
+        <v>817507</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>620730</v>
+        <v>618341</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>879765</v>
+        <v>882037</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>903011</v>
+        <v>909293</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>837432</v>
+        <v>834623</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>795260</v>
+        <v>800735</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1006239</v>
+        <v>1004719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1000055</v>
+        <v>1003609</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>975797</v>
+        <v>983661</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1446376</v>
+        <v>1438845</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1917017</v>
+        <v>1916397</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1935996</v>
+        <v>1942187</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1846013</v>
+        <v>1845673</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>700669</v>
+        <v>699026</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>970666</v>
+        <v>972165</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1000006</v>
+        <v>1000563</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>946259</v>
+        <v>945298</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>876804</v>
+        <v>878972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1091082</v>
+        <v>1091078</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1086889</v>
+        <v>1092032</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1068014</v>
+        <v>1064628</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1557104</v>
+        <v>1555206</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2044615</v>
+        <v>2042504</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>2064019</v>
+        <v>2061735</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1981453</v>
+        <v>1986528</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>195776</v>
+        <v>191333</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>192542</v>
+        <v>194282</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>221430</v>
+        <v>220765</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>265289</v>
+        <v>263548</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>232207</v>
+        <v>230915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>225136</v>
+        <v>223853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>252878</v>
+        <v>253547</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>333762</v>
+        <v>333298</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>434716</v>
+        <v>435485</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>430475</v>
+        <v>433433</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>490552</v>
+        <v>492115</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>616681</v>
+        <v>612600</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>242069</v>
+        <v>239115</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>240351</v>
+        <v>244909</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>272422</v>
+        <v>268154</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>322297</v>
+        <v>319208</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>275373</v>
+        <v>274494</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>272317</v>
+        <v>271588</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>301166</v>
+        <v>302034</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>380969</v>
+        <v>382044</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>501741</v>
+        <v>499764</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>501107</v>
+        <v>500955</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>556970</v>
+        <v>559586</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>687952</v>
+        <v>690201</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1358756</v>
+        <v>1362283</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1609936</v>
+        <v>1618806</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1566687</v>
+        <v>1567599</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1402558</v>
+        <v>1400592</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1773308</v>
+        <v>1767675</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2131991</v>
+        <v>2136941</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1876361</v>
+        <v>1873565</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1832406</v>
+        <v>1829489</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3168994</v>
+        <v>3168640</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3782964</v>
+        <v>3785327</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3475107</v>
+        <v>3482306</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3271893</v>
+        <v>3258398</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1474694</v>
+        <v>1476078</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1730686</v>
+        <v>1732633</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1682011</v>
+        <v>1686115</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1530685</v>
+        <v>1529687</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1888675</v>
+        <v>1886844</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2254016</v>
+        <v>2256321</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1995831</v>
+        <v>2000691</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1946139</v>
+        <v>1938909</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3332888</v>
+        <v>3329927</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>3956341</v>
+        <v>3961891</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>3646089</v>
+        <v>3651998</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>3443604</v>
+        <v>3437612</v>
       </c>
     </row>
     <row r="20">
